--- a/Trabajos/Week1/EstadisticaDescriptiva.xlsx
+++ b/Trabajos/Week1/EstadisticaDescriptiva.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8205" activeTab="1"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RetornoMensual" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,21 @@
   <si>
     <t>Cuenta</t>
   </si>
+  <si>
+    <t>Entre enero de 1980 y junio de 2016 el retorno promedio de las acciones fue de $1.24.</t>
+  </si>
+  <si>
+    <t>La mediana es de $0.84 lo cual hace pensar que pueden haber valores al extremo derecho.</t>
+  </si>
+  <si>
+    <t>La moda es $0.00 y por tanto se concluye que no existen dos valores iguales en toda la muestra.</t>
+  </si>
+  <si>
+    <t>El valor de desvío es 7.35 y es mucho más alto que la media lo que indica que existe mucha variación en los datos de la muestra.</t>
+  </si>
+  <si>
+    <t>Se nota un valor muy alto en el rango, producto de la alta variabilidad en los datos de la muestra.</t>
+  </si>
 </sst>
 </file>
 
@@ -96,12 +111,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -136,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -149,6 +176,13 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5708,131 +5742,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="115.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>1.2391195882481585</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7">
         <v>0.35136381487007018</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>0.83605029311053514</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="12">
         <v>7.3451006653974051</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="12">
         <v>53.9505037848214</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7">
         <v>1.8698289045202743</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="7">
         <v>0.2848479698588976</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="12">
         <v>57.853845495590754</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="12">
         <v>-22.473991106687542</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="12">
         <v>35.379854388903212</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7">
         <v>541.49526006444523</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>437</v>
       </c>
+      <c r="C15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
